--- a/Tinkering_Git_Spreadsheet.xlsx
+++ b/Tinkering_Git_Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziako\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B326CDE-0626-4E87-B17F-50C51F8B3513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABABEB6E-9940-4DC6-A0A8-39DC7F93E1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="1524" windowWidth="17280" windowHeight="8964" xr2:uid="{F154F47B-8C91-4934-AAF3-D1DFE9AA462B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F154F47B-8C91-4934-AAF3-D1DFE9AA462B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -406,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D924D7-BC43-4743-9AD6-BF9FF70F0FAF}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +600,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43970</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43971</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
